--- a/biology/Botanique/Jan_Bekker_Teerlink/Jan_Bekker_Teerlink.xlsx
+++ b/biology/Botanique/Jan_Bekker_Teerlink/Jan_Bekker_Teerlink.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jan Bekker Teerlink, baptisé le 17 août 1759 et mort le 4 décembre 1832 à Margaux (Gironde), est un botaniste, viticulteur et collectionneur néerlandais.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le viticulteur
-En 1809, il achète le château Marquis d'Alesme Becker, dans l'appellation Margaux de la région viticole de Bordeaux. Le domaine viticole de Bekker Teerlink, créé par le marquis d'Alesme en 1585, existe toujours. Le vin portant son nom de famille Château Marquis d'Alesme 'Becker' - et pendant un certain temps simplement appelé Becker - est produit depuis lors. Jan Bekker Teerlink (« Monsieur Becker ») décède le 4 décembre 1832 à Margaux et est enterré au cimetière protestant de Bordeaux.
+          <t>Le viticulteur</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1809, il achète le château Marquis d'Alesme Becker, dans l'appellation Margaux de la région viticole de Bordeaux. Le domaine viticole de Bekker Teerlink, créé par le marquis d'Alesme en 1585, existe toujours. Le vin portant son nom de famille Château Marquis d'Alesme 'Becker' - et pendant un certain temps simplement appelé Becker - est produit depuis lors. Jan Bekker Teerlink (« Monsieur Becker ») décède le 4 décembre 1832 à Margaux et est enterré au cimetière protestant de Bordeaux.
 </t>
         </is>
       </c>
@@ -543,7 +560,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Stefano Mancuso, L'incroyable voyage des plantes, Albin Michel, 2022.
 </t>
